--- a/script/extract_all.xlsx
+++ b/script/extract_all.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,25 +598,15 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cc_4</t>
+          <t>meeting_room</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>cc_5</t>
+          <t>meeting_room_email</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>meeting_room</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>meeting_room_email</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>meeting_room_category</t>
         </is>
@@ -738,19 +728,17 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV2" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -872,19 +860,17 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV3" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1006,19 +992,17 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV4" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1140,19 +1124,17 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV5" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1274,19 +1256,17 @@
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV6" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1408,19 +1388,17 @@
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV7" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1542,19 +1520,17 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV8" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1680,19 +1656,17 @@
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV9" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1818,19 +1792,17 @@
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV10" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
         <is>
           <t>system</t>
         </is>
@@ -1956,19 +1928,17 @@
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>Ruang Meeting Cibitung W'dank</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>rwdank@nutrifood.co.id</t>
+        </is>
+      </c>
       <c r="AV11" t="inlineStr">
-        <is>
-          <t>Ruang Meeting Cibitung W'dank</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>rwdank@nutrifood.co.id</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
         <is>
           <t>system</t>
         </is>

--- a/script/extract_all.xlsx
+++ b/script/extract_all.xlsx
@@ -653,11 +653,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -728,8 +724,16 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
@@ -789,11 +793,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -864,8 +864,16 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
@@ -925,11 +933,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -1000,8 +1004,16 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
@@ -1061,11 +1073,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1136,8 +1144,16 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
@@ -1197,11 +1213,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1272,8 +1284,16 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
@@ -1333,11 +1353,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1408,8 +1424,16 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
@@ -1469,11 +1493,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1544,8 +1564,16 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
@@ -1605,11 +1633,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1684,8 +1708,16 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
@@ -1745,11 +1777,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1824,8 +1852,16 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
@@ -1885,11 +1921,7 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1964,8 +1996,16 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
@@ -2096,8 +2136,16 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>Fahim</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>fahimhadimaula@gmail.com</t>
+        </is>
+      </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">

--- a/script/extract_all.xlsx
+++ b/script/extract_all.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>prameswari.kristal@nutrifood.co.id</t>
+          <t>fahimhadimaula@gmail.com</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>fahimhadimaula@gmail.com</t>
+          <t>fahimhmaula@gmail.com</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr"/>

--- a/script/extract_all.xlsx
+++ b/script/extract_all.xlsx
@@ -653,8 +653,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -793,8 +801,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -933,8 +949,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -1073,8 +1097,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -1213,8 +1245,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -1353,8 +1393,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -1493,8 +1541,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1633,8 +1689,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1777,8 +1841,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1921,8 +1993,16 @@
           <t>C0001</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -2065,8 +2145,16 @@
           <t>C0002</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>

--- a/script/extract_all.xlsx
+++ b/script/extract_all.xlsx
@@ -615,7 +615,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -763,7 +763,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -779,11 +779,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -927,11 +927,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1355,7 +1355,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1519,11 +1519,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1651,7 +1651,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1803,7 +1803,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1819,11 +1819,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1955,7 +1955,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_BASSS-1024-1</t>
+          <t>2019-YDL-NFB-TECH_BASSS-1224-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kamis</t>
+          <t>Selasa</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>43762.41666666666</v>
+        <v>43823.41666666666</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2107,7 +2107,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-YDL-NFB-TECH_SISMA-1023-1</t>
+          <t>2019-YDL-NFB-TECH_SISMA-1223-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2123,11 +2123,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rabu</t>
+          <t>Senin</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>43761.41666666666</v>
+        <v>43822.41666666666</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
